--- a/ITI/FAIS/StructureDefinition-IHE.FAIS.InsurancePlan.xlsx
+++ b/ITI/FAIS/StructureDefinition-IHE.FAIS.InsurancePlan.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-comment</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-07T10:12:51-05:00</t>
+    <t>2024-11-13T10:59:36-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
